--- a/Tests/Validation/Wheat/GxExM/NDVI.xlsx
+++ b/Tests/Validation/Wheat/GxExM/NDVI.xlsx
@@ -37,311 +37,311 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="101">
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>Scout</t>
-  </si>
-  <si>
-    <t>Gauntlet</t>
-  </si>
-  <si>
-    <t>Spitfire</t>
-  </si>
-  <si>
-    <t>Sunstate</t>
-  </si>
-  <si>
-    <t>Hartog</t>
-  </si>
-  <si>
-    <t>Espada</t>
-  </si>
-  <si>
-    <t>Sunbee</t>
-  </si>
-  <si>
-    <t>Corack</t>
-  </si>
-  <si>
-    <t>Cv</t>
-  </si>
-  <si>
-    <t>60A</t>
-  </si>
-  <si>
-    <t>29B</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>Junee2014CV29B</t>
-  </si>
-  <si>
-    <t>Junee2014CV5A</t>
-  </si>
-  <si>
-    <t>Junee2014CV60A</t>
-  </si>
-  <si>
-    <t>Junee2014CVCorack</t>
-  </si>
-  <si>
-    <t>Junee2014CVEspada</t>
-  </si>
-  <si>
-    <t>Junee2014CVGauntlet</t>
-  </si>
-  <si>
-    <t>Junee2014CVHartog</t>
-  </si>
-  <si>
-    <t>Junee2014CVMace</t>
-  </si>
-  <si>
-    <t>Junee2014CVScout</t>
-  </si>
-  <si>
-    <t>Junee2014CVSpitfire</t>
-  </si>
-  <si>
-    <t>Junee2014CVSunbee</t>
-  </si>
-  <si>
-    <t>Junee2014CVSunstate</t>
-  </si>
-  <si>
-    <t>Minnipa2014CV29B</t>
-  </si>
-  <si>
-    <t>Minnipa2014CV5A</t>
-  </si>
-  <si>
-    <t>Minnipa2014CV60A</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVCorack</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVEspada</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVGauntlet</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVHartog</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVMace</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVScout</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVSpitfire</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVSunbee</t>
-  </si>
-  <si>
-    <t>Minnipa2014CVSunstate</t>
-  </si>
-  <si>
-    <t>Temora2015CV29B</t>
-  </si>
-  <si>
-    <t>Temora2015CV5A</t>
-  </si>
-  <si>
-    <t>Temora2015CV60A</t>
-  </si>
-  <si>
-    <t>Temora2015CVCorack</t>
-  </si>
-  <si>
-    <t>Temora2015CVEspada</t>
-  </si>
-  <si>
-    <t>Temora2015CVGauntlet</t>
-  </si>
-  <si>
-    <t>Temora2015CVHartog</t>
-  </si>
-  <si>
-    <t>Temora2015CVMace</t>
-  </si>
-  <si>
-    <t>Temora2015CVScout</t>
-  </si>
-  <si>
-    <t>Temora2015CVSpitfire</t>
-  </si>
-  <si>
-    <t>Temora2015CVSunbee</t>
-  </si>
-  <si>
-    <t>Temora2015CVSunstate</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>Minnipa2015CV29B</t>
-  </si>
-  <si>
-    <t>Minnipa2015CV5A</t>
-  </si>
-  <si>
-    <t>Minnipa2015CV60A</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVCorack</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVEspada</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVGauntlet</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVHartog</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVMace</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVScout</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVSpitfire</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVSunbee</t>
-  </si>
-  <si>
-    <t>Minnipa2015CVSunstate</t>
-  </si>
-  <si>
-    <t>Gatton2014CV29B</t>
-  </si>
-  <si>
-    <t>Gatton2014CV5A</t>
-  </si>
-  <si>
-    <t>Gatton2014CV60A</t>
-  </si>
-  <si>
-    <t>Gatton2014CVCorack</t>
-  </si>
-  <si>
-    <t>Gatton2014CVEspada</t>
-  </si>
-  <si>
-    <t>Gatton2014CVGauntlet</t>
-  </si>
-  <si>
-    <t>Gatton2014CVHartog</t>
-  </si>
-  <si>
-    <t>Gatton2014CVMace</t>
-  </si>
-  <si>
-    <t>Gatton2014CVScout</t>
-  </si>
-  <si>
-    <t>Gatton2014CVSpitfire</t>
-  </si>
-  <si>
-    <t>Gatton2014CVSunbee</t>
-  </si>
-  <si>
-    <t>Gatton2014CVSunstate</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCV29B</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCV5A</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCV60A</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVCorack</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVEspada</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVGauntlet</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVHartog</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVMace</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVScout</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVSpitfire</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVSunbee</t>
-  </si>
-  <si>
-    <t>Gatton2014IrrigatedCVSunstate</t>
-  </si>
-  <si>
-    <t>Gatton2015CV29B</t>
-  </si>
-  <si>
-    <t>Gatton2015CV5A</t>
-  </si>
-  <si>
-    <t>Gatton2015CV60A</t>
-  </si>
-  <si>
-    <t>Gatton2015CVCorack</t>
-  </si>
-  <si>
-    <t>Gatton2015CVEspada</t>
-  </si>
-  <si>
-    <t>Gatton2015CVGaunlet</t>
-  </si>
-  <si>
-    <t>Gatton2015CVHartog</t>
-  </si>
-  <si>
-    <t>Gatton2015CVMace</t>
-  </si>
-  <si>
-    <t>Gatton2015CVScout</t>
-  </si>
-  <si>
-    <t>Gatton2015CVSpitfire</t>
-  </si>
-  <si>
-    <t>Gatton2015CVSunbee</t>
-  </si>
-  <si>
-    <t>Gatton2015CVSunstate</t>
-  </si>
-  <si>
-    <t>Gaunlet</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="101">
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gauntlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spitfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunstate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hartog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Espada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunbee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CV29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CV5A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CV60A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVCorack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVEspada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVGauntlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVHartog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVSpitfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVSunbee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junee2014CVSunstate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CV29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CV5A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CV60A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVCorack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVEspada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVGauntlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVHartog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVSpitfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVSunbee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2014CVSunstate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CV29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CV5A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CV60A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVCorack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVEspada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVGauntlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVHartog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVSpitfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVSunbee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2015CVSunstate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CV29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CV5A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CV60A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVCorack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVEspada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVGauntlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVHartog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVSpitfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVSunbee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2015CVSunstate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CV29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CV5A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CV60A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVCorack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVEspada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVGauntlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVHartog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVSpitfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVSunbee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014CVSunstate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCV29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCV5A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCV60A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVCorack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVEspada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVGauntlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVHartog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVSpitfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVSunbee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2014IrrigatedCVSunstate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CV29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CV5A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CV60A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVCorack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVEspada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVGaunlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVHartog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVSpitfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVSunbee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gatton2015CVSunstate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaunlet</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
